--- a/Demo/GP_LT_EX_KO.xlsx
+++ b/Demo/GP_LT_EX_KO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="180" windowWidth="19050" windowHeight="10545" tabRatio="440" activeTab="1"/>
+    <workbookView xWindow="660" yWindow="180" windowWidth="19050" windowHeight="10545" tabRatio="440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1304,6 +1304,15 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="38" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="46" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1321,15 +1330,6 @@
     </xf>
     <xf numFmtId="49" fontId="46" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="38" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1418,7 +1418,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1474,7 +1474,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1809,17 +1809,17 @@
   </sheetPr>
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="50" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="50" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="14" customWidth="1"/>
     <col min="3" max="3" width="53.42578125" style="39" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="2" hidden="1" customWidth="1"/>
     <col min="5" max="7" width="10.85546875" style="2" customWidth="1"/>
@@ -1920,36 +1920,36 @@
       <c r="B3" s="3"/>
       <c r="C3" s="19"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="70" t="s">
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="73" t="s">
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="70" t="s">
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="73" t="s">
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="75"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="78"/>
     </row>
     <row r="4" spans="1:24" s="7" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
@@ -2067,7 +2067,7 @@
       <c r="A6" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="70">
         <v>12345</v>
       </c>
       <c r="C6" s="48" t="s">
@@ -2079,8 +2079,7 @@
       <c r="G6" s="34"/>
       <c r="H6" s="9"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="24">
+      <c r="J6" s="24">
         <v>10000</v>
       </c>
       <c r="L6" s="13"/>
@@ -2101,7 +2100,7 @@
       <c r="A7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="77">
+      <c r="B7" s="71">
         <v>12346</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -2133,7 +2132,7 @@
       <c r="A8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="76">
+      <c r="B8" s="70">
         <v>1234567</v>
       </c>
       <c r="C8" s="48" t="s">
@@ -2171,7 +2170,7 @@
       <c r="A9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="78">
+      <c r="B9" s="72">
         <v>12345678</v>
       </c>
       <c r="C9" s="48" t="s">
@@ -2203,7 +2202,7 @@
       <c r="A10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="78">
+      <c r="B10" s="72">
         <v>1234565789</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -2215,8 +2214,7 @@
       <c r="G10" s="34"/>
       <c r="H10" s="9"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="24">
+      <c r="J10" s="24">
         <v>10000</v>
       </c>
       <c r="L10" s="22"/>
@@ -2491,7 +2489,7 @@
   </sheetPr>
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="BG1" sqref="BG1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -2603,36 +2601,36 @@
       <c r="B3" s="3"/>
       <c r="C3" s="19"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="70" t="s">
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="73" t="s">
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="70" t="s">
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="73" t="s">
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="75"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="78"/>
     </row>
     <row r="4" spans="1:24" s="7" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
